--- a/protocol/错误码.xlsx
+++ b/protocol/错误码.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>错误码</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>没轮到你</t>
+  </si>
+  <si>
+    <t>CHI_PENG_CARD</t>
+  </si>
+  <si>
+    <t>吃碰过的牌本回合不能出</t>
   </si>
   <si>
     <t>NOT_SAME_TYPE</t>
@@ -677,6 +683,17 @@
         <v>72</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
